--- a/PM-Sheets/PM-Sheet_BAUX(2).xlsx
+++ b/PM-Sheets/PM-Sheet_BAUX(2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\PM-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DAF5CC-8E6D-4A6A-9F8E-D55A44C6A597}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94B628-842D-4EDE-8C23-F7FB403512BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Planung</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PM-Sheet</t>
-  </si>
-  <si>
     <t>Armin Hamzic, Pero Djukic and Amin Taha</t>
   </si>
   <si>
@@ -87,49 +84,28 @@
     <t>Deadline:</t>
   </si>
   <si>
-    <t>4 hours</t>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
   <si>
     <t>Remain</t>
   </si>
   <si>
-    <t>Djukic</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>Hamzic</t>
-  </si>
-  <si>
-    <t>in process</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>2 1/2 hours</t>
-  </si>
-  <si>
-    <t>product description on the marketing website</t>
-  </si>
-  <si>
-    <t>Hamzic, Djukic, Taha</t>
+    <t>PM-Sheet (2)</t>
+  </si>
+  <si>
+    <t>Add a registration window in the login area</t>
+  </si>
+  <si>
+    <t>Djukic, Hamzic, Taha</t>
+  </si>
+  <si>
+    <t>Work on the marketing WebSite</t>
   </si>
   <si>
     <t>6 hours</t>
-  </si>
-  <si>
-    <t>Add a registration window in the login area</t>
-  </si>
-  <si>
-    <t>Start to create the android app (login, reg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read myself into android studio </t>
-  </si>
-  <si>
-    <t>1 1/2 hours</t>
   </si>
 </sst>
 </file>
@@ -269,7 +245,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -285,9 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFill="1">
@@ -885,8 +858,8 @@
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -902,7 +875,7 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -910,62 +883,62 @@
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9">
-        <v>43538</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8">
+        <v>43510</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1010,61 +983,64 @@
     </row>
     <row r="12" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13"/>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
+      <c r="C14"/>
+      <c r="D14" s="3"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
     </row>
@@ -1072,24 +1048,9 @@
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="6">
-        <v>43497</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15" s="3"/>
+      <c r="E15"/>
     </row>
     <row r="16" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
